--- a/01_C#/学习笔记_WebAPI.xlsx
+++ b/01_C#/学习笔记_WebAPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
   <si>
     <r>
       <rPr>
@@ -312,9 +312,6 @@
     <t>[ApiController]</t>
   </si>
   <si>
-    <t>[Route("[controller]")]</t>
-  </si>
-  <si>
     <t>public class WeatherForecastController : ControllerBase</t>
   </si>
   <si>
@@ -366,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 此规则有一个例外：如果打算为视图和 Web API 使用相同的控制器，则从 Controller 派生控制器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[HttpPost]</t>
   </si>
   <si>
@@ -1157,6 +1150,64 @@
   </si>
   <si>
     <t>使用 http-repl 测试 Web API：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 此规则有一个例外：如果打算为视图和 Web API 使用相同的控制器，则从 Controller 派生控制器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ApiController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("[controller]")]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,12 +1336,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0101FD"/>
       <name val="Consolas"/>
@@ -1346,6 +1391,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1473,7 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1503,7 +1555,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1530,9 +1581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1541,18 +1589,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1973,7 +2024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2059,20 +2110,20 @@
   </sheetPr>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>41</v>
+      <c r="A1" s="41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
-        <v>42</v>
+      <c r="B2" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
@@ -2087,7 +2138,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2100,7 +2151,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2113,7 +2164,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2126,22 +2177,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
-        <v>17</v>
+      <c r="B10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2154,7 +2205,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2167,7 +2218,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2180,7 +2231,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2193,7 +2244,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2206,7 +2257,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2219,7 +2270,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2232,7 +2283,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2256,7 +2307,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -2269,7 +2320,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -2281,96 +2332,96 @@
       <c r="J22" s="13"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="2:10" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="19" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="23" t="s">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="23" t="s">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="33" spans="2:9" ht="26.25" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -2378,220 +2429,220 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="15"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="16" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="16"/>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="22"/>
-    </row>
-    <row r="39" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="23" t="s">
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25" t="s">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="23" t="s">
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="26"/>
-    </row>
-    <row r="41" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="23" t="s">
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="23" t="s">
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="26"/>
-    </row>
-    <row r="43" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="45" spans="2:9" ht="26.25" x14ac:dyDescent="0.2">
       <c r="B45" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="33"/>
+      <c r="B47" s="31"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="26.25" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B57" s="16" t="s">
-        <v>64</v>
+      <c r="B57" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C57" s="11"/>
     </row>
     <row r="58" spans="2:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="16"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="11"/>
     </row>
     <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>65</v>
+      <c r="B59" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="34" t="s">
-        <v>81</v>
+      <c r="B67" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -2604,8 +2655,8 @@
       <c r="K67" s="13"/>
     </row>
     <row r="68" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="34" t="s">
-        <v>82</v>
+      <c r="B68" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -2618,8 +2669,8 @@
       <c r="K68" s="13"/>
     </row>
     <row r="70" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="34" t="s">
-        <v>78</v>
+      <c r="B70" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -2632,8 +2683,8 @@
       <c r="K70" s="13"/>
     </row>
     <row r="71" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="34" t="s">
-        <v>79</v>
+      <c r="B71" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -2646,8 +2697,8 @@
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="34" t="s">
-        <v>80</v>
+      <c r="B72" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -2663,198 +2714,198 @@
       <c r="B73" s="12"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
     </row>
     <row r="75" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+    </row>
+    <row r="76" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+    </row>
+    <row r="77" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+    </row>
+    <row r="78" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-    </row>
-    <row r="76" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="35" t="s">
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+    </row>
+    <row r="79" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-    </row>
-    <row r="77" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-    </row>
-    <row r="78" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="35" t="s">
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-    </row>
-    <row r="79" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="35" t="s">
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+    </row>
+    <row r="81" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-    </row>
-    <row r="80" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="35" t="s">
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-    </row>
-    <row r="81" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="35" t="s">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+    </row>
+    <row r="85" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-    </row>
-    <row r="82" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-    </row>
-    <row r="83" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-    </row>
-    <row r="84" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="35" t="s">
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-    </row>
-    <row r="85" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-    </row>
-    <row r="86" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
     </row>
     <row r="87" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
+      <c r="B87" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3316,30 +3367,30 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>118</v>
+      <c r="A1" s="34" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
-        <v>95</v>
+      <c r="B2" s="35" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
-        <v>96</v>
+      <c r="B3" s="39" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>94</v>
+      <c r="B4" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -3350,67 +3401,67 @@
       <c r="I4" s="13"/>
     </row>
     <row r="20" spans="2:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
-        <v>92</v>
+      <c r="B20" s="35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
-        <v>93</v>
+      <c r="B21" s="36" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="38" t="s">
-        <v>98</v>
+      <c r="B22" s="36" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="B23" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="B24" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
+      <c r="B25" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
-        <v>112</v>
+      <c r="B27" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -3423,7 +3474,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -3435,8 +3486,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="30" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
-        <v>113</v>
+      <c r="B30" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -3449,7 +3500,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3462,7 +3513,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -3475,7 +3526,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -3488,7 +3539,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -3501,7 +3552,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -3548,43 +3599,43 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>104</v>
+      <c r="A1" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>105</v>
+      <c r="B2" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="36" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
